--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -798,13 +798,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE61C7E9-6FB2-4DF4-8EAA-C77CC04FED02}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99420E9E-DE3B-4E74-B927-DE092933D86D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA316DC-22D1-4F7A-947A-9EE391456EAF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8521EF93-4FE3-449F-B3B5-B77B857BFE2B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC90358-D68F-46FA-B400-76794DD5F285}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{177971EA-6322-4D8C-A214-E6307C2E4AA9}"/>
 </file>
--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,29 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-hongkong\InputData\web-app\CDCF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDCF-PMpPDOU" sheetId="2" r:id="rId2"/>
     <sheet name="CDCF-FTMpFDOU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>none needed</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -36,38 +46,44 @@
     <t>desired output unit.</t>
   </si>
   <si>
-    <t>For the U.S. model, the desired output units are:</t>
-  </si>
-  <si>
-    <t>trillion passenger-miles</t>
-  </si>
-  <si>
-    <t>trillion freight ton-miles</t>
-  </si>
-  <si>
     <t>CDCF Passenger Miles per Passenger Distance Output Unit</t>
   </si>
   <si>
     <t>passenger distance output unit</t>
   </si>
   <si>
-    <t>passenger-miles</t>
-  </si>
-  <si>
     <t>freight distance output unit</t>
   </si>
   <si>
-    <t>freight ton-miles</t>
-  </si>
-  <si>
     <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
+  </si>
+  <si>
+    <t>trillion passenger-kilometers</t>
+  </si>
+  <si>
+    <t>trillion freight ton-kilometers</t>
+  </si>
+  <si>
+    <t>Google unit converter</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=kilometers+per+mile</t>
+  </si>
+  <si>
+    <t>passenger-kilometers</t>
+  </si>
+  <si>
+    <t>freight ton-kilometers</t>
+  </si>
+  <si>
+    <t>For the Hong Kong model, the desired output units are:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +95,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,18 +125,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -120,6 +147,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -168,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,68 +442,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -484,26 +527,28 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.265625" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+        <f>1.60934*10^12</f>
+        <v>1609340000000</v>
       </c>
     </row>
   </sheetData>
@@ -518,293 +563,31 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.86328125" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+        <f>1.60934*10^12</f>
+        <v>1609340000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <xsd:import namespace="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="18" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="19" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7889d872-e2a2-4afb-87bc-97561eced75f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c9df191c-55f2-496b-9838-9a5abe4742ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="14" nillable="true" ma:displayName="MediaServiceLocation" ma:description="" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="20" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="21" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99420E9E-DE3B-4E74-B927-DE092933D86D}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8521EF93-4FE3-449F-B3B5-B77B857BFE2B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{177971EA-6322-4D8C-A214-E6307C2E4AA9}"/>
 </file>